--- a/Daily Task/Lab_task-02(21-10-2025).xlsx
+++ b/Daily Task/Lab_task-02(21-10-2025).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\8th Semester\ML\Labs works\Daily Task\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C25635DF-AEC0-4FFE-BAFD-AEB8E85C2328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{501C0E30-2E6B-4E94-88E9-EC4BF856DA9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{23DFB663-099B-4D55-9F13-8866EFD02722}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>House Price in $1000s(Y)</t>
   </si>
@@ -166,6 +166,9 @@
   <si>
     <t>R=</t>
   </si>
+  <si>
+    <t>Square of R is</t>
+  </si>
 </sst>
 </file>
 
@@ -196,7 +199,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -230,6 +233,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -287,7 +296,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -295,16 +304,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -317,6 +317,16 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1614,10 +1624,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B9DFEC6-F7F7-498E-A92C-E7C67F19CA9D}">
-  <dimension ref="B2:K40"/>
+  <dimension ref="B2:K41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1639,7 +1649,7 @@
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="9" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1650,7 +1660,7 @@
       <c r="C3" s="2">
         <v>1400</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="8">
         <f>98.2483296213808+0.109767737830099*C3</f>
         <v>251.9231625835194</v>
       </c>
@@ -1662,7 +1672,7 @@
       <c r="C4" s="2">
         <v>1600</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="8">
         <f t="shared" ref="E4:E12" si="0">98.2483296213808+0.109767737830099*C4</f>
         <v>273.87671014953924</v>
       </c>
@@ -1674,7 +1684,7 @@
       <c r="C5" s="2">
         <v>1700</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="8">
         <f t="shared" si="0"/>
         <v>284.85348393254912</v>
       </c>
@@ -1686,7 +1696,7 @@
       <c r="C6" s="2">
         <v>1875</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="8">
         <f t="shared" si="0"/>
         <v>304.06283805281646</v>
       </c>
@@ -1698,7 +1708,7 @@
       <c r="C7" s="2">
         <v>1100</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="8">
         <f t="shared" si="0"/>
         <v>218.9928412344897</v>
       </c>
@@ -1710,7 +1720,7 @@
       <c r="C8" s="2">
         <v>1550</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="8">
         <f t="shared" si="0"/>
         <v>268.38832325803423</v>
       </c>
@@ -1722,7 +1732,7 @@
       <c r="C9" s="2">
         <v>2350</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="8">
         <f t="shared" si="0"/>
         <v>356.20251352211346</v>
       </c>
@@ -1734,7 +1744,7 @@
       <c r="C10" s="2">
         <v>2450</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="8">
         <f t="shared" si="0"/>
         <v>367.17928730512335</v>
       </c>
@@ -1746,7 +1756,7 @@
       <c r="C11" s="2">
         <v>1425</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="8">
         <f t="shared" si="0"/>
         <v>254.66735602927187</v>
       </c>
@@ -1758,341 +1768,350 @@
       <c r="C12" s="2">
         <v>1700</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="8">
         <f t="shared" si="0"/>
         <v>284.85348393254912</v>
       </c>
     </row>
     <row r="18" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
     </row>
     <row r="19" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
     </row>
     <row r="20" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
     </row>
     <row r="21" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="6">
         <v>0.76211371321625765</v>
       </c>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
     </row>
     <row r="22" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D22" s="6">
         <v>0.58081731187227226</v>
       </c>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
     </row>
     <row r="23" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23" s="6">
         <v>0.52841947585630633</v>
       </c>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
     </row>
     <row r="24" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D24" s="6">
         <v>41.330323650299405</v>
       </c>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
     </row>
     <row r="25" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D25" s="6">
         <v>10</v>
       </c>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
     </row>
     <row r="26" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
     </row>
     <row r="27" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
     </row>
     <row r="28" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C28" s="10"/>
-      <c r="D28" s="10" t="s">
+      <c r="C28" s="7"/>
+      <c r="D28" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E28" s="10" t="s">
+      <c r="E28" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F28" s="10" t="s">
+      <c r="F28" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G28" s="10" t="s">
+      <c r="G28" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H28" s="10" t="s">
+      <c r="H28" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
     </row>
     <row r="29" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D29" s="6">
         <v>1</v>
       </c>
-      <c r="E29" s="9">
+      <c r="E29" s="6">
         <v>18934.934775692011</v>
       </c>
-      <c r="F29" s="9">
+      <c r="F29" s="6">
         <v>18934.934775692011</v>
       </c>
-      <c r="G29" s="9">
+      <c r="G29" s="6">
         <v>11.084757616617857</v>
       </c>
-      <c r="H29" s="9">
+      <c r="H29" s="6">
         <v>1.0394016376015495E-2</v>
       </c>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
     </row>
     <row r="30" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="9">
+      <c r="D30" s="6">
         <v>8</v>
       </c>
-      <c r="E30" s="9">
+      <c r="E30" s="6">
         <v>13665.565224307988</v>
       </c>
-      <c r="F30" s="9">
+      <c r="F30" s="6">
         <v>1708.1956530384984</v>
       </c>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
     </row>
     <row r="31" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D31" s="9">
+      <c r="D31" s="6">
         <v>9</v>
       </c>
-      <c r="E31" s="9">
+      <c r="E31" s="6">
         <v>32600.5</v>
       </c>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
     </row>
     <row r="32" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
     </row>
     <row r="33" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C33" s="8"/>
-      <c r="D33" s="8" t="s">
+      <c r="C33" s="5"/>
+      <c r="D33" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E33" s="8" t="s">
+      <c r="E33" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F33" s="8" t="s">
+      <c r="F33" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G33" s="8" t="s">
+      <c r="G33" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H33" s="8" t="s">
+      <c r="H33" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="I33" s="8" t="s">
+      <c r="I33" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J33" s="8" t="s">
+      <c r="J33" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="K33" s="8" t="s">
+      <c r="K33" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="34" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D34" s="9">
+      <c r="D34" s="6">
         <v>98.248329621380805</v>
       </c>
-      <c r="E34" s="9">
+      <c r="E34" s="6">
         <v>58.033478584711453</v>
       </c>
-      <c r="F34" s="9">
+      <c r="F34" s="6">
         <v>1.6929595126366201</v>
       </c>
-      <c r="G34" s="9">
+      <c r="G34" s="6">
         <v>0.12891881585496773</v>
       </c>
-      <c r="H34" s="9">
+      <c r="H34" s="6">
         <v>-35.577111975246254</v>
       </c>
-      <c r="I34" s="9">
+      <c r="I34" s="6">
         <v>232.07377121800792</v>
       </c>
-      <c r="J34" s="9">
+      <c r="J34" s="6">
         <v>-35.577111975246254</v>
       </c>
-      <c r="K34" s="9">
+      <c r="K34" s="6">
         <v>232.07377121800792</v>
       </c>
     </row>
     <row r="35" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D35" s="9">
+      <c r="D35" s="6">
         <v>0.10976773783009899</v>
       </c>
-      <c r="E35" s="9">
+      <c r="E35" s="6">
         <v>3.296944326214666E-2</v>
       </c>
-      <c r="F35" s="9">
+      <c r="F35" s="6">
         <v>3.3293779624154802</v>
       </c>
-      <c r="G35" s="9">
+      <c r="G35" s="6">
         <v>1.0394016376015495E-2</v>
       </c>
-      <c r="H35" s="9">
+      <c r="H35" s="6">
         <v>3.3740065332209274E-2</v>
       </c>
-      <c r="I35" s="9">
+      <c r="I35" s="6">
         <v>0.18579541032798799</v>
       </c>
-      <c r="J35" s="9">
+      <c r="J35" s="6">
         <v>3.3740065332209274E-2</v>
       </c>
-      <c r="K35" s="9">
+      <c r="K35" s="6">
         <v>0.18579541032798799</v>
       </c>
     </row>
     <row r="36" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
     </row>
     <row r="40" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C40" t="s">
+      <c r="C40" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="8">
         <f>CORREL(B3:B12,E3:E12)</f>
         <v>0.76211371321625787</v>
+      </c>
+    </row>
+    <row r="41" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C41" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D41" s="8">
+        <f>(D40*D40)</f>
+        <v>0.58081731187227259</v>
       </c>
     </row>
   </sheetData>
